--- a/Rolleliste m køn.xlsx
+++ b/Rolleliste m køn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE30DC-76B0-D444-A08A-0E025865B002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7149EB4-504E-F345-8736-B547C2B2D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="7780" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="242">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Officeren, Officer</t>
   </si>
   <si>
-    <t>bondedreng_mod.jsonl</t>
-  </si>
-  <si>
     <t>Musikanten</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>Anden købmand, Den anden købmand</t>
   </si>
   <si>
-    <t>Anden propietær</t>
-  </si>
-  <si>
     <t>Anden proprietær, Den anden proprietær</t>
   </si>
   <si>
@@ -746,6 +740,27 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>maske</t>
+  </si>
+  <si>
+    <t>sønnen</t>
+  </si>
+  <si>
+    <t>alder</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Anden proprietær</t>
+  </si>
+  <si>
+    <t>Bondedreng_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Den_Stundesloese_mod.jsonl</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1143,7 @@
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1139,10 +1154,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1153,10 +1174,16 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1167,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1181,10 +1208,10 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1195,24 +1222,24 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1220,13 +1247,13 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1234,13 +1261,13 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1251,10 +1278,10 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1265,10 +1292,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1279,10 +1306,10 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1290,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1307,10 +1334,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1321,105 +1348,105 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,343 +1460,343 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
         <v>213</v>
       </c>
-      <c r="C23" t="s">
-        <v>214</v>
-      </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
         <v>215</v>
       </c>
-      <c r="C24" t="s">
-        <v>216</v>
-      </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
         <v>217</v>
       </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>80</v>
       </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>142</v>
       </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
         <v>198</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>199</v>
       </c>
-      <c r="C40" t="s">
-        <v>200</v>
-      </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
         <v>201</v>
       </c>
-      <c r="C41" t="s">
-        <v>202</v>
-      </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
         <v>203</v>
       </c>
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
         <v>205</v>
       </c>
-      <c r="C43" t="s">
-        <v>206</v>
-      </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
         <v>207</v>
       </c>
-      <c r="C44" t="s">
-        <v>208</v>
-      </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
         <v>209</v>
       </c>
-      <c r="C45" t="s">
-        <v>210</v>
-      </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
         <v>211</v>
       </c>
-      <c r="B46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" t="s">
-        <v>212</v>
-      </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1783,7 +1810,7 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,13 +1818,13 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,13 +1832,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1839,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,7 +1880,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,130 +1888,130 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
         <v>131</v>
       </c>
-      <c r="C53" t="s">
-        <v>132</v>
-      </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
         <v>146</v>
       </c>
-      <c r="B54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
-      </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
         <v>148</v>
       </c>
-      <c r="C55" t="s">
-        <v>149</v>
-      </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
         <v>153</v>
       </c>
-      <c r="C57" t="s">
-        <v>154</v>
-      </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
         <v>156</v>
       </c>
-      <c r="C59" t="s">
-        <v>157</v>
-      </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
         <v>158</v>
       </c>
-      <c r="C60" t="s">
-        <v>159</v>
-      </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
         <v>160</v>
       </c>
-      <c r="C61" t="s">
-        <v>161</v>
-      </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1993,7 +2020,7 @@
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2007,7 +2034,7 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2021,7 +2048,7 @@
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2035,7 +2062,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2049,7 +2076,7 @@
         <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2063,192 +2090,192 @@
         <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
         <v>89</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
         <v>181</v>
       </c>
-      <c r="C70" t="s">
-        <v>182</v>
-      </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
         <v>183</v>
       </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
         <v>186</v>
       </c>
-      <c r="C73" t="s">
-        <v>187</v>
-      </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
         <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
         <v>188</v>
       </c>
-      <c r="C75" t="s">
-        <v>189</v>
-      </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" t="s">
         <v>190</v>
       </c>
-      <c r="C76" t="s">
-        <v>191</v>
-      </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
         <v>192</v>
       </c>
-      <c r="C77" t="s">
-        <v>193</v>
-      </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" t="s">
         <v>194</v>
       </c>
-      <c r="C78" t="s">
-        <v>195</v>
-      </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
         <v>196</v>
       </c>
-      <c r="C79" t="s">
-        <v>197</v>
-      </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
         <v>92</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>93</v>
       </c>
-      <c r="C80" t="s">
-        <v>94</v>
-      </c>
       <c r="D80" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2259,24 +2286,27 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
         <v>95</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>96</v>
       </c>
-      <c r="C82" t="s">
-        <v>97</v>
-      </c>
       <c r="D82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -2287,66 +2317,66 @@
         <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
         <v>134</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s">
         <v>135</v>
       </c>
-      <c r="D84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>136</v>
       </c>
-      <c r="C85" t="s">
-        <v>137</v>
-      </c>
       <c r="D85" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
         <v>98</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>99</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
         <v>100</v>
       </c>
-      <c r="D86" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>101</v>
       </c>
-      <c r="C87" t="s">
-        <v>102</v>
-      </c>
       <c r="D87" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -2357,52 +2387,52 @@
         <v>50</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
         <v>103</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>104</v>
       </c>
-      <c r="C89" t="s">
-        <v>105</v>
-      </c>
       <c r="D89" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>106</v>
       </c>
-      <c r="D90" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>107</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>108</v>
       </c>
-      <c r="C91" t="s">
-        <v>109</v>
-      </c>
       <c r="D91" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -2413,21 +2443,21 @@
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2455,200 +2485,200 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
         <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
         <v>163</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
         <v>168</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
         <v>175</v>
-      </c>
-      <c r="D17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
         <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
